--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Equal Opportunity_Sex_(0.001, 0.001)</t>
+          <t>Equal Opportunity_Sex_(0.001, 10)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -499,7 +499,7 @@
         <v>0.001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001</v>
+        <v>10</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -513,19 +513,19 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[[-0.873471736907959, 0.0772586742986362], [-0.7522483468055725, 0.0], [-0.8730573058128357, 0.009345629284149504], [-0.8728086352348328, 0.006526482227404373], [-0.8726014494895935, 0.002344798954137528], [-0.8733059763908386, 0.0629703731185075], [-0.8723942041397095, 0.0003405236379054877], [-0.8688300251960754, 0.0002870821850046168]]</t>
+          <t>[[-0.7522483468055725, 0.0], [-0.8738447427749634, 0.02194544555155109], [-0.8660532832145691, 0.0002552823122040637], [-0.873223066329956, 0.0027842555296445637], [-0.8735132217407227, 0.009437937248251038], [-0.8741348385810852, 0.09069323722705103], [-0.8728086352348328, 0.0003630485478058887]]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[[0.0037071961521745744], [0.09922276847480137], [0.0038903187610889855], [0.002216808795059005], [0.003603708027452899], [0.0041647504605024505], [0.0029374958360206963], [0.003994995789099643]]</t>
+          <t>[[0.08347910462254755], [0.004009183531475201], [0.0008810654286696129], [0.0030345118945645745], [0.0031036563769257196], [0.0028339281213236468], [0.0020586092383480517]]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Equal Opportunity_Sex_(0.001, 0.1)</t>
+          <t>Equal Opportunity_Sex_(0.1, 0.001)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -538,29 +538,491 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.001</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Equal Opportunity</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[[-0.8655974268913269, 0.0001179245283018382], [-0.8727672100067139, 0.0007534803194121364], [-0.8731816411018372, 0.0013753444986219776], [-0.8735132217407227, 0.01285995689350583]]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[[0.01572000149109995], [0.004006920413992388], [0.005286370012301185], [0.0036879487028284186]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Equal Opportunity_Sex_(0.1, 0.1)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Equal Opportunity</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Equal Opportunity</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sex</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[[-0.7522483468055725, 0.0], [-0.7522483468055725, 0.0], [-0.8713995814323425, 0.005921842979294767], [-0.8689957857131958, 0.0008387216451134494], [-0.8669236302375793, 0.00025307398770402223], [-0.8733888864517212, 0.016000635997456047], [-0.8689543604850769, 0.0002848738605045753], [-0.8700733780860901, 0.00107059571761714], [-0.8735132217407227, 0.023146332414670345], [-0.8726428747177124, 0.007564836407321085], [-0.8740105032920837, 0.03181753939650911], [-0.8712752461433411, 0.002655289378842407], [-0.8730573058128357, 0.012241626033495878]]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[[0.09888722278175882], [0.07894900491230371], [0.0016325859643406917], [0.01166619914558964], [0.008234529976454874], [0.0025098974351074064], [0.0061916625836822585], [0.0060050395743312165], [0.0018300942347379055], [0.003684913317857158], [0.003688764584519107], [0.01010982758772455], [0.0038117107727824386]]</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[[-0.8732645511627197, 0.00877278990884034], [-0.8735546469688416, 0.07591247968341452], [-0.868912935256958, 0.00017489930040270885], [-0.867711067199707, 0.0001625326832025431], [-0.8711094260215759, 0.001264928273620236], [-0.8726428747177124, 0.002952088191647273], [-0.8692444562911987, 0.00038557345770606766]]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[[0.003855701940571608], [0.0028439358456528565], [0.0033818602165460025], [0.006963092511284651], [0.003413759446540731], [0.004381401402511948], [0.0070016887586912485]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Equal Opportunity_Sex_(0.1, 10)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Equal Opportunity</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[[-0.8611214756965637, 0.0004027983888064135], [-0.7522483468055725, 0.0], [-0.8725599646568298, 0.011383471132782153], [-0.8476936221122742, 0.00020758250300334513], [-0.8692030310630798, 0.0007013638612112238], [-0.8728915452957153, 0.02601008762631618], [-0.8740519881248474, 0.02652153558052439], [-0.8716896772384644, 0.0018214260476291377], [-0.871523916721344, 0.0008091300968129378], [-0.8723113536834717, 0.007876651826726033]]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[[0.021652013153577437], [0.08923040884670386], [0.00293721381107608], [0.0429479839695851], [0.00827417787567469], [0.0054446692564691325], [0.002708072664032459], [0.003710378903115153], [0.002807468065039012], [0.004433323210900431]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Equal Opportunity_Sex_(10, 0.001)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Equal Opportunity</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[[-0.8720626831054688, 0.00011085788990172762], [-0.8737204074859619, 0.007550703130520864], [-0.8725185394287109, 0.002240566037735925], [-0.8730987310409546, 0.002250282665536063], [-0.8745907545089722, 0.01862324217369793]]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[[0.0036243303459643924], [0.00403259441741376], [0.002037026704318547], [0.0024627137570927193], [0.003088584573088745]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Equal Opportunity_Sex_(10, 0.1)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Equal Opportunity</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[[-0.7522483468055725, 0.0], [-0.8588005900382996, 0.00034979860080563974], [-0.8742591738700867, 0.0009336795986149005], [-0.8743835091590881, 0.05832803335453318], [-0.8706949949264526, 0.0008753798318140715], [-0.7522483468055725, 0.0], [-0.8683741688728333, 0.0005732810402091504]]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[[0.09682933141436782], [0.03898580590817517], [0.0025097094185421954], [0.0024156310703548132], [0.00762190057460771], [0.09355875137208662], [0.002110151267852768]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Equal Opportunity_Sex_(10, 10)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Equal Opportunity</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[[-0.8196361064910889, 0.00023275740230377373], [-0.7522483468055725, 0.0], [-0.7522483468055725, 0.0], [-0.8711923360824585, 0.0013280863543212451], [-0.8698247075080872, 0.0005048229807080862], [-0.8721870183944702, 0.003956434174263279], [-0.872725784778595, 0.007041463500812584], [-0.8733059763908386, 0.009370362518549946]]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[[0.041760498269787144], [0.09579316406203515], [0.09529448137906951], [0.002876068071742783], [0.009353097591057383], [0.006178684482551804], [0.005093915369397501], [0.005444715801888229]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Equal Opportunity_Race_(0.001, 0.001)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Equal Opportunity</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[[-0.873927652835846, 0.0268342700896248], [-0.873223066329956, 0.00400400020254188], [-0.8738033175468445, 0.013945009873917669], [-0.8731816411018372, 0.001738062686718278], [-0.8704878091812134, 1.64565294445973e-05], [-0.8735546469688416, 0.006577548230290109], [-0.8740519881248474, 0.05921945414957719]]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[[0.005235745454624104], [0.003977079758001645], [0.002615778992415791], [0.0026528789668906197], [0.0022060123535939976], [0.003523740269327053], [0.002049750849795937]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Equal Opportunity_Race_(0.001, 0.1)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Equal Opportunity</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[[-0.8723113536834717, 0.003010279001468441], [-0.8723527789115906, 0.00331156007899136], [-0.8705292344093323, 0.0006607929515417554], [-0.8706949949264526, 0.0016886930983847082], [-0.869907557964325, 0.0004417945212416008], [-0.8740105032920837, 0.019649096156767465]]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[[0.003399559891446409], [0.0018169996812743613], [0.0030722290997552654], [0.00362967969976274], [0.00540860803119942], [0.004005054196423718]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Equal Opportunity_Race_(0.001, 10)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Equal Opportunity</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[[-0.7522068619728088, 0.0], [-0.8730158805847168, 0.00573446756797813], [-0.8740934133529663, 0.020484581497797305], [-0.8740105032920837, 0.018075598764494383], [-0.872725784778595, 0.003400172160615722], [-0.8709851503372192, 0.0009924553141931192], [-0.8742591738700867, 0.11199174641754006], [-0.8685399293899536, 0.00025824092359105766]]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[[0.09888722278175882], [0.0034996288392465354], [0.002852801334073043], [0.0029192583040229133], [0.003118379378974046], [0.0027509308555792437], [0.0037117057829734227], [0.007152232773821811]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Equal Opportunity_Race_(0.1, 0.001)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Equal Opportunity</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[[-0.8713995814323425, 0.0006354752139349218], [-0.8574329614639282, 0.0004481239556433092], [-0.873223066329956, 0.016437541141323564], [-0.8740105032920837, 0.03189528583725765], [-0.8727672100067139, 0.00336092966732493], [-0.8741348385810852, 0.042724948098637916], [-0.871523916721344, 0.001162084156159815]]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[[0.004001572844964948], [0.041226256293041955], [0.0039891934139875615], [0.002615873029937302], [0.0033247918302649324], [0.003727917572822779], [0.004910796640466561]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Equal Opportunity_Race_(0.1, 0.1)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Equal Opportunity</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[[-0.7522483468055725, 0.0], [-0.8737618923187256, 0.00029621753000153017]]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[[0.09888722278175882], [0.002139253837900679]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Equal Opportunity_Race_(0.1, 10)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Equal Opportunity</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[[-0.8653073310852051, 0.0005797761911995325], [-0.873471736907959, 0.0009228315357739936], [-0.8737204074859619, 0.02752924198693607], [-0.8690786957740784, 0.0006126892500886161]]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[[0.010039723043298003], [0.0038486283269951495], [0.0030140309019624457], [0.0029084554401318232]]</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,90 +436,426 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>priority</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>population size</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>number generations</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>threshold fairness difference</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>threshold negative accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>fairness metric</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>protected attribute</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>solutions</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>learning rate</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>number generations</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>population size</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>priority</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>protected attribute</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>solutions</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>threshold fairness difference</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>threshold negative accuracy</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Equal Opportunity_Race_(10, 0.001)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+          <t>Equal Opportunity_Race_(10, 0.1)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Equal Opportunity</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[[0.0028462616493179146], [0.002590368198518595], [0.00289355495310106], [0.0029096086771784307], [0.004302053804414838], [0.004427622235551442]]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[[-0.8735132217407227, 0.01620968150286095], [-0.8735546469688416, 0.02065927388728539], [-0.8723527789115906, 0.00232416831231963], [-0.8702805638313293, 0.00029621753000153017], [-0.8640225529670715, 0.00021140310901823778]]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[[0.0028737239939516388], [0.002971458386903831], [0.0028684319319696016], [0.00374261365951772], [0.003322649616601183]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Equal Opportunity_Race_(10, 10)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>50</v>
       </c>
-      <c r="F2" t="n">
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Equal Opportunity</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[[-0.8714824318885803, 0.0001000050635474592], [-0.7522483468055725, 0.0], [-0.7522483468055725, 0.0], [-0.7522483468055725, 0.0], [-0.8719383478164673, 0.003046989720998483], [-0.8716482520103455, 0.0007949769608587287], [-0.8737204074859619, 0.02342143906020555], [-0.8714410066604614, 4.430604081229195e-05], [-0.8734303116798401, 0.009865056458554844]]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[[0.0017745076722178134], [0.09895409459406464], [0.0936968270797161], [0.0993825068792214], [0.0036615332415286], [0.0019053222938458059], [0.003641574953726978], [0.0034821088280922443], [0.0026614375568086764]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Equalized Odds_Sex_(0.001, 0.001)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Race</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[[-0.872269868850708, 0.004886323358144762], [-0.8733888864517212, 0.035553698921464316], [-0.8742177486419678, 0.03949946832751028], [-0.8729329705238342, 0.02185173932857365], [-0.8716482520103455, 9.620740290650076e-05], [-0.8751295208930969, 0.04536052458352313]]</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Equalized Odds</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[[-0.8265987038612366, 0.02434565725661994], [-0.8366281390190125, 0.02605185671545674], [-0.8205893039703369, 0.00926165248434338], [-0.861991822719574, 0.03561748593405175], [-0.8743835091590881, 0.06744981278407403], [-0.8514236211776733, 0.029490282491716795], [-0.8687471747398376, 0.048114197214148835], [-0.8671308159828186, 0.03816643353082369], [-0.8685813546180725, 0.044599439702429675], [-0.8725599646568298, 0.05690462725140685], [-0.872477114200592, 0.04852629342814105]]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[[0.08947120568403436], [0.06863962454533037], [0.08972192871631018], [0.01608495754267763], [0.0030164253919121643], [0.02642312346147711], [0.0037476388128512305], [0.004986735525391881], [0.0030047753910134724], [0.0031146051421806842], [0.002996645218538682]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Equalized Odds_Sex_(0.001, 0.1)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Equalized Odds</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[[-0.8409797549247742, 0.019156886663060965], [-0.8720211982727051, 0.05518519575823929], [-0.8688715100288391, 0.043365337110828385], [-0.8549463152885437, 0.03789376875341892], [-0.8682084083557129, 0.04321708431802043], [-0.873927652835846, 0.07447845338736221], [-0.8671723008155823, 0.042677477071546344], [-0.8717311024665833, 0.0481274292484796], [-0.8742177486419678, 0.07482657548007596], [-0.8735132217407227, 0.05616074002691672], [-0.8726014494895935, 0.05576672373544059], [-0.8738861680030823, 0.0658587667435385]]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[[0.06011712596813006], [0.0023875984547754884], [0.001859066934291876], [0.03252023115285509], [0.009259553645886206], [0.004570539122095032], [0.0026936556435444344], [0.0031369506917890535], [0.002748609887659027], [0.004064160090213528], [0.004228466779856352], [0.004137777386298756]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Equalized Odds_Sex_(0.001, 10)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Equalized Odds</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[[-0.7573459148406982, 0.0], [-0.8416428565979004, 0.02097208002178849], [-0.8485639691352844, 0.03869590779085207], [-0.8467819094657898, 0.02719901879771859], [-0.8742591738700867, 0.05169646510510659], [-0.8656388521194458, 0.03961320024658648], [-0.8704878091812134, 0.05025764532541417], [-0.8675453066825867, 0.04077625620098907], [-0.8701977133750916, 0.046391229463021155], [-0.87467360496521, 0.06100357457813728]]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[[0.09682933141436782], [0.04484456326497293], [0.06471362195628479], [0.07555854266449227], [0.0020063520475156154], [0.0017380186186091058], [0.0020175598447174717], [0.007683141151680322], [0.0035923654630059766], [0.004749775194149533]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Equalized Odds_Sex_(0.1, 0.001)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Equalized Odds</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[[-0.827468991279602, 0.017130816597831798], [-0.8325666189193726, 0.017652343921789805], [-0.873678982257843, 0.053017032418612706], [-0.8717725276947021, 0.052872753093839944], [-0.8573500514030457, 0.029213605668917265], [-0.8709851503372192, 0.04755957051568413], [-0.8675453066825867, 0.038641629445944244], [-0.8747150897979736, 0.05932383918796201], [-0.8682084083557129, 0.04502917862886291], [-0.870322048664093, 0.04622310933003728], [-0.8670479655265808, 0.035323204976170766], [-0.8680840730667114, 0.03884237316600017]]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[[0.09354873019997026], [0.04282993489942096], [0.0037368712036962327], [0.003045042301467457], [0.015863333177623326], [0.0044117923999603325], [0.006421912069214856], [0.0023306674900125295], [0.008211184477728109], [0.0035391265529110586], [0.0022594703768275], [0.0028852438209539294]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Equalized Odds_Sex_(0.1, 0.1)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Equalized Odds</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[[-0.8113058805465698, 0.0038624423943578296], [-0.7522483468055725, 0.0], [-0.8545318841934204, 0.031128971571315008], [-0.8268473744392395, 0.013927545546359568], [-0.8728915452957153, 0.07820543781316779], [-0.8726842999458313, 0.0695954469457147], [-0.8491027355194092, 0.030416396303671718], [-0.8675867319107056, 0.04959096425653327], [-0.871523916721344, 0.05735864419612626], [-0.8449168801307678, 0.022928890867478798], [-0.8309917449951172, 0.014313177691690257], [-0.8685813546180725, 0.05594056617675992], [-0.8670893907546997, 0.04955389141399139], [-0.7522483468055725, 0.0], [-0.8690786957740784, 0.057234232211529436], [-0.8642712235450745, 0.04092450899379702], [-0.8658875226974487, 0.04636166634647459]]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[[0.04197753198888916], [0.09888722278175882], [0.025911617547587713], [0.09639152664637879], [0.002191128408852173], [0.003202766149796566], [0.05392172478021459], [0.0073486046188346], [0.002716075199586803], [0.08476803490002455], [0.0854971295412364], [0.009476593674124225], [0.0068693597770245534], [0.09864504875280274], [0.005563915328170643], [0.009063145746052267], [0.008454763210457406]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Equalized Odds_Sex_(0.1, 10)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Equalized Odds</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[[-0.8649757504463196, 0.04477503098404929], [-0.8466575741767883, 0.012382355127226845], [-0.852957010269165, 0.03977071160569], [-0.8511334657669067, 0.037407526854342954], [-0.8740519881248474, 0.062413268451358195], [-0.7915785908699036, 0.00174017325349363], [-0.7522897720336914, 0.0], [-0.8496415019035339, 0.03253338034627552], [-0.8723942041397095, 0.047915202334393184], [-0.8547391295433044, 0.04292101594247961]]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[[0.0093246256174029], [0.0559131138617306], [0.07482738382920621], [0.06385154153284131], [0.0032632262195883633], [0.07630135625276781], [0.0957714771607889], [0.07293848032051037], [0.0037931358102265573], [0.0426691253901261]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Equalized Odds_Sex_(10, 0.001)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Equalized Odds</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[[-0.8726428747177124, 0.06042160939086092], [-0.8716896772384644, 0.05664960518644309], [-0.8733474016189575, 0.06942911423039069], [-0.8735132217407227, 0.08096792395425137], [-0.8720626831054688, 0.05704095964010924], [-0.8726842999458313, 0.06122462284844422], [-0.8413112759590149, 0.0235051337464197], [-0.8704878091812134, 0.0531824907137866], [-0.871068000793457, 0.0558937975578474], [-0.8682498335838318, 0.04191900760514067], [-0.8651829957962036, 0.03301386135965646], [-0.8705706596374512, 0.05532550161497687], [-0.870114803314209, 0.044261887806236716]]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[[0.005093325405927208], [0.0028302062756110184], [0.0024905725950376124], [0.0035286209471135487], [0.002497101155402906], [0.004897714939421236], [0.04562392099360847], [0.0021665057698880864], [0.0019173170353772697], [0.004686199290776381], [0.006672207718285134], [0.0017491870607448392], [0.0029005544630838808]]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Equal Opportunity_Race_(10, 0.1)</t>
+          <t>Equalized Odds_Sex_(10, 0.1)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -503,29 +503,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Equal Opportunity</t>
+          <t>Equalized Odds</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[[-0.8735132217407227, 0.01620968150286095], [-0.8735546469688416, 0.02065927388728539], [-0.8723527789115906, 0.00232416831231963], [-0.8702805638313293, 0.00029621753000153017], [-0.8640225529670715, 0.00021140310901823778]]</t>
+          <t>[[-0.8258526921272278, 0.006683141771024852], [-0.8726014494895935, 0.07748801465733918], [-0.8457872271537781, 0.03125958165168193], [-0.8389489650726318, 0.010626288001592467], [-0.8718554377555847, 0.05476205356029165], [-0.8499315977096558, 0.03311049764536657], [-0.752372682094574, 0.0], [-0.8621990084648132, 0.03850044916905654], [-0.872477114200592, 0.06526134489419645], [-0.7946040034294128, 0.00012707382240681052], [-0.8402751684188843, 0.017449375573998963], [-0.869907557964325, 0.04349638440127038]]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[[0.0028737239939516388], [0.002971458386903831], [0.0028684319319696016], [0.00374261365951772], [0.003322649616601183]]</t>
+          <t>[[0.0720604168948716], [0.002836020560472824], [0.0421904887623584], [0.06813019151383098], [0.0027850457024521805], [0.0649615009819186], [0.03772704255796117], [0.014769201910509478], [0.0034135680479825195], [0.07799149240476415], [0.06843056619169122], [0.0023400581311345883]]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Equal Opportunity_Race_(10, 10)</t>
+          <t>Equalized Odds_Sex_(10, 10)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -545,316 +545,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Equal Opportunity</t>
+          <t>Equalized Odds</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[[-0.8714824318885803, 0.0001000050635474592], [-0.7522483468055725, 0.0], [-0.7522483468055725, 0.0], [-0.7522483468055725, 0.0], [-0.8719383478164673, 0.003046989720998483], [-0.8716482520103455, 0.0007949769608587287], [-0.8737204074859619, 0.02342143906020555], [-0.8714410066604614, 4.430604081229195e-05], [-0.8734303116798401, 0.009865056458554844]]</t>
+          <t>[[-0.7522483468055725, 0.0], [-0.8542832136154175, 0.03470551715393729], [-0.8537030220031738, 0.028834608829431747], [-0.7522483468055725, 0.0], [-0.8375813364982605, 0.019613565445590363], [-0.8352604508399963, 0.009348991626398333], [-0.8675453066825867, 0.0492088683691627], [-0.8714410066604614, 0.05365371316087197], [-0.7522483468055725, 0.0], [-0.8638982176780701, 0.04269289515625246], [-0.8387417793273926, 0.023556313043442474], [-0.7522483468055725, 0.0], [-0.8730158805847168, 0.07101133891470571], [-0.8401508331298828, 0.028692991342468964], [-0.7522483468055725, 0.0], [-0.8055452108383179, 0.00308148232732581], [-0.8608728051185608, 0.03868708643463157], [-0.7522483468055725, 0.0], [-0.8399022221565247, 0.025090856111335286]]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[[0.0017745076722178134], [0.09895409459406464], [0.0936968270797161], [0.0993825068792214], [0.0036615332415286], [0.0019053222938458059], [0.003641574953726978], [0.0034821088280922443], [0.0026614375568086764]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Equalized Odds_Sex_(0.001, 0.001)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Equalized Odds</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[[-0.8265987038612366, 0.02434565725661994], [-0.8366281390190125, 0.02605185671545674], [-0.8205893039703369, 0.00926165248434338], [-0.861991822719574, 0.03561748593405175], [-0.8743835091590881, 0.06744981278407403], [-0.8514236211776733, 0.029490282491716795], [-0.8687471747398376, 0.048114197214148835], [-0.8671308159828186, 0.03816643353082369], [-0.8685813546180725, 0.044599439702429675], [-0.8725599646568298, 0.05690462725140685], [-0.872477114200592, 0.04852629342814105]]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[[0.08947120568403436], [0.06863962454533037], [0.08972192871631018], [0.01608495754267763], [0.0030164253919121643], [0.02642312346147711], [0.0037476388128512305], [0.004986735525391881], [0.0030047753910134724], [0.0031146051421806842], [0.002996645218538682]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Equalized Odds_Sex_(0.001, 0.1)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Equalized Odds</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[[-0.8409797549247742, 0.019156886663060965], [-0.8720211982727051, 0.05518519575823929], [-0.8688715100288391, 0.043365337110828385], [-0.8549463152885437, 0.03789376875341892], [-0.8682084083557129, 0.04321708431802043], [-0.873927652835846, 0.07447845338736221], [-0.8671723008155823, 0.042677477071546344], [-0.8717311024665833, 0.0481274292484796], [-0.8742177486419678, 0.07482657548007596], [-0.8735132217407227, 0.05616074002691672], [-0.8726014494895935, 0.05576672373544059], [-0.8738861680030823, 0.0658587667435385]]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[[0.06011712596813006], [0.0023875984547754884], [0.001859066934291876], [0.03252023115285509], [0.009259553645886206], [0.004570539122095032], [0.0026936556435444344], [0.0031369506917890535], [0.002748609887659027], [0.004064160090213528], [0.004228466779856352], [0.004137777386298756]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Equalized Odds_Sex_(0.001, 10)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Equalized Odds</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[[-0.7573459148406982, 0.0], [-0.8416428565979004, 0.02097208002178849], [-0.8485639691352844, 0.03869590779085207], [-0.8467819094657898, 0.02719901879771859], [-0.8742591738700867, 0.05169646510510659], [-0.8656388521194458, 0.03961320024658648], [-0.8704878091812134, 0.05025764532541417], [-0.8675453066825867, 0.04077625620098907], [-0.8701977133750916, 0.046391229463021155], [-0.87467360496521, 0.06100357457813728]]</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[[0.09682933141436782], [0.04484456326497293], [0.06471362195628479], [0.07555854266449227], [0.0020063520475156154], [0.0017380186186091058], [0.0020175598447174717], [0.007683141151680322], [0.0035923654630059766], [0.004749775194149533]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Equalized Odds_Sex_(0.1, 0.001)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Equalized Odds</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[[-0.827468991279602, 0.017130816597831798], [-0.8325666189193726, 0.017652343921789805], [-0.873678982257843, 0.053017032418612706], [-0.8717725276947021, 0.052872753093839944], [-0.8573500514030457, 0.029213605668917265], [-0.8709851503372192, 0.04755957051568413], [-0.8675453066825867, 0.038641629445944244], [-0.8747150897979736, 0.05932383918796201], [-0.8682084083557129, 0.04502917862886291], [-0.870322048664093, 0.04622310933003728], [-0.8670479655265808, 0.035323204976170766], [-0.8680840730667114, 0.03884237316600017]]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[[0.09354873019997026], [0.04282993489942096], [0.0037368712036962327], [0.003045042301467457], [0.015863333177623326], [0.0044117923999603325], [0.006421912069214856], [0.0023306674900125295], [0.008211184477728109], [0.0035391265529110586], [0.0022594703768275], [0.0028852438209539294]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Equalized Odds_Sex_(0.1, 0.1)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Equalized Odds</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[[-0.8113058805465698, 0.0038624423943578296], [-0.7522483468055725, 0.0], [-0.8545318841934204, 0.031128971571315008], [-0.8268473744392395, 0.013927545546359568], [-0.8728915452957153, 0.07820543781316779], [-0.8726842999458313, 0.0695954469457147], [-0.8491027355194092, 0.030416396303671718], [-0.8675867319107056, 0.04959096425653327], [-0.871523916721344, 0.05735864419612626], [-0.8449168801307678, 0.022928890867478798], [-0.8309917449951172, 0.014313177691690257], [-0.8685813546180725, 0.05594056617675992], [-0.8670893907546997, 0.04955389141399139], [-0.7522483468055725, 0.0], [-0.8690786957740784, 0.057234232211529436], [-0.8642712235450745, 0.04092450899379702], [-0.8658875226974487, 0.04636166634647459]]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[[0.04197753198888916], [0.09888722278175882], [0.025911617547587713], [0.09639152664637879], [0.002191128408852173], [0.003202766149796566], [0.05392172478021459], [0.0073486046188346], [0.002716075199586803], [0.08476803490002455], [0.0854971295412364], [0.009476593674124225], [0.0068693597770245534], [0.09864504875280274], [0.005563915328170643], [0.009063145746052267], [0.008454763210457406]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Equalized Odds_Sex_(0.1, 10)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Equalized Odds</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[[-0.8649757504463196, 0.04477503098404929], [-0.8466575741767883, 0.012382355127226845], [-0.852957010269165, 0.03977071160569], [-0.8511334657669067, 0.037407526854342954], [-0.8740519881248474, 0.062413268451358195], [-0.7915785908699036, 0.00174017325349363], [-0.7522897720336914, 0.0], [-0.8496415019035339, 0.03253338034627552], [-0.8723942041397095, 0.047915202334393184], [-0.8547391295433044, 0.04292101594247961]]</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>[[0.0093246256174029], [0.0559131138617306], [0.07482738382920621], [0.06385154153284131], [0.0032632262195883633], [0.07630135625276781], [0.0957714771607889], [0.07293848032051037], [0.0037931358102265573], [0.0426691253901261]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Equalized Odds_Sex_(10, 0.001)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Equalized Odds</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[[-0.8726428747177124, 0.06042160939086092], [-0.8716896772384644, 0.05664960518644309], [-0.8733474016189575, 0.06942911423039069], [-0.8735132217407227, 0.08096792395425137], [-0.8720626831054688, 0.05704095964010924], [-0.8726842999458313, 0.06122462284844422], [-0.8413112759590149, 0.0235051337464197], [-0.8704878091812134, 0.0531824907137866], [-0.871068000793457, 0.0558937975578474], [-0.8682498335838318, 0.04191900760514067], [-0.8651829957962036, 0.03301386135965646], [-0.8705706596374512, 0.05532550161497687], [-0.870114803314209, 0.044261887806236716]]</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[[0.005093325405927208], [0.0028302062756110184], [0.0024905725950376124], [0.0035286209471135487], [0.002497101155402906], [0.004897714939421236], [0.04562392099360847], [0.0021665057698880864], [0.0019173170353772697], [0.004686199290776381], [0.006672207718285134], [0.0017491870607448392], [0.0029005544630838808]]</t>
+          <t>[[0.08782393189545545], [0.017066058914500432], [0.04162967372417659], [0.07577576340821449], [0.07617841240083235], [0.09296948390164726], [0.008057047556820914], [0.006016119795329136], [0.09103986047624911], [0.01277561454241902], [0.08836292858453894], [0.09123925139880788], [0.002240117548971489], [0.09932110870392455], [0.09246524167436099], [0.0855823463652505], [0.020837874015763706], [0.08969255518681019], [0.08849216840664628]]</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Equalized Odds_Sex_(10, 0.1)</t>
+          <t>Equalized Odds_Race_(0.001, 0.001)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -496,10 +496,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>0.001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -508,24 +508,24 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Race</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[[-0.8258526921272278, 0.006683141771024852], [-0.8726014494895935, 0.07748801465733918], [-0.8457872271537781, 0.03125958165168193], [-0.8389489650726318, 0.010626288001592467], [-0.8718554377555847, 0.05476205356029165], [-0.8499315977096558, 0.03311049764536657], [-0.752372682094574, 0.0], [-0.8621990084648132, 0.03850044916905654], [-0.872477114200592, 0.06526134489419645], [-0.7946040034294128, 0.00012707382240681052], [-0.8402751684188843, 0.017449375573998963], [-0.869907557964325, 0.04349638440127038]]</t>
+          <t>[[-0.8242363929748535, 0.014159401248010444], [-0.8745492696762085, 0.04942125245736562], [-0.8483567237854004, 0.022308763410192875], [-0.8272618055343628, 0.015153982078193153], [-0.8723942041397095, 0.041401527976946725], [-0.8729329705238342, 0.04163277990565041], [-0.8464503288269043, 0.019675899769046053], [-0.8696174621582031, 0.025799807076898284], [-0.873927652835846, 0.048502003441224226], [-0.8731402158737183, 0.043939038281920376], [-0.8715653419494629, 0.02747662629584531], [-0.872269868850708, 0.031295781863708405], [-0.8646027445793152, 0.024152517929055446]]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[[0.0720604168948716], [0.002836020560472824], [0.0421904887623584], [0.06813019151383098], [0.0027850457024521805], [0.0649615009819186], [0.03772704255796117], [0.014769201910509478], [0.0034135680479825195], [0.07799149240476415], [0.06843056619169122], [0.0023400581311345883]]</t>
+          <t>[[0.0720604168948716], [0.002836020560472824], [0.0559131138617306], [0.08765127631437424], [0.0057057463996129515], [0.002577534814659025], [0.030659470640097105], [0.0028352034648014795], [0.003095331604070015], [0.005586780177463361], [0.001933568534453362], [0.0035356390842225284], [0.004155429204476469]]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Equalized Odds_Sex_(10, 10)</t>
+          <t>Equalized Odds_Race_(0.001, 0.1)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -538,29 +538,197 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Equalized Odds</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[[-0.8729329705238342, 0.03932652152938046], [-0.8735546469688416, 0.04492886483761692], [-0.8708608150482178, 0.02273396964944826], [-0.8726842999458313, 0.039115291122808635], [-0.8721041083335876, 0.034613394954087606], [-0.8681669235229492, 0.02031283862696687]]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[[0.004001572844964948], [0.002443965282760008], [0.003986077195804353], [0.0018077342267215526], [0.0039166856703735506], [0.001969444193204859]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Equalized Odds_Race_(0.001, 10)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
         <v>10</v>
       </c>
-      <c r="F3" t="n">
+      <c r="E4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F4" t="n">
         <v>10</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Equalized Odds</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[[-0.7522483468055725, 0.0], [-0.8542832136154175, 0.03470551715393729], [-0.8537030220031738, 0.028834608829431747], [-0.7522483468055725, 0.0], [-0.8375813364982605, 0.019613565445590363], [-0.8352604508399963, 0.009348991626398333], [-0.8675453066825867, 0.0492088683691627], [-0.8714410066604614, 0.05365371316087197], [-0.7522483468055725, 0.0], [-0.8638982176780701, 0.04269289515625246], [-0.8387417793273926, 0.023556313043442474], [-0.7522483468055725, 0.0], [-0.8730158805847168, 0.07101133891470571], [-0.8401508331298828, 0.028692991342468964], [-0.7522483468055725, 0.0], [-0.8055452108383179, 0.00308148232732581], [-0.8608728051185608, 0.03868708643463157], [-0.7522483468055725, 0.0], [-0.8399022221565247, 0.025090856111335286]]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[[0.08782393189545545], [0.017066058914500432], [0.04162967372417659], [0.07577576340821449], [0.07617841240083235], [0.09296948390164726], [0.008057047556820914], [0.006016119795329136], [0.09103986047624911], [0.01277561454241902], [0.08836292858453894], [0.09123925139880788], [0.002240117548971489], [0.09932110870392455], [0.09246524167436099], [0.0855823463652505], [0.020837874015763706], [0.08969255518681019], [0.08849216840664628]]</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[[-0.8619089126586914, 0.02549898203282666], [-0.8486883044242859, 0.02446810800867916], [-0.8347631692886353, 0.021626022809334945], [-0.872725784778595, 0.043879475927618386], [-0.8736375570297241, 0.04493837338658924], [-0.8678354024887085, 0.03005042979478375], [-0.8674623966217041, 0.02795540182508562], [-0.8722284436225891, 0.035812945280075156], [-0.8711509108543396, 0.03206587388804802], [-0.8726428747177124, 0.03783364585991919], [-0.8707779049873352, 0.030407067342858418], [-0.8629035353660583, 0.025808813413777], [-0.874880850315094, 0.05666187857656621], [-0.8680840730667114, 0.030337494227490495], [-0.8720211982727051, 0.03211967754367664]]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[[0.009924848699921704], [0.07503941706300225], [0.09086869075900025], [0.004273323343272307], [0.0023895398211110945], [0.007803082023880141], [0.0026085558453432882], [0.006096653228117211], [0.0028502520542225845], [0.004606693194367068], [0.0038426154255498304], [0.010921646514229267], [0.0026291574446831944], [0.0032930808050942997], [0.005800639842243884]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Equalized Odds_Race_(0.1, 0.001)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Equalized Odds</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[[-0.7633967399597168, 0.00013064210595074792], [-0.8711094260215759, 0.030486149007198676], [-0.872477114200592, 0.036467662446109717], [-0.8698247075080872, 0.02036614007050188], [-0.8718968629837036, 0.03514071765237675], [-0.8382444381713867, 0.014053534938677725], [-0.8739690780639648, 0.04636592800307515], [-0.8725599646568298, 0.042753248567297716]]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[[0.08947120568403436], [0.0026459700330397585], [0.0038954644340870328], [0.004816235113004338], [0.00408031450697115], [0.03952480124322402], [0.002516430643276443], [0.0045271594241939675]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Equalized Odds_Race_(0.1, 0.1)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Equalized Odds</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[[-0.8728086352348328, 0.04566792015457151], [-0.7522483468055725, 0.0], [-0.8678354024887085, 0.03050767716561137], [-0.8716482520103455, 0.04253250961175356], [-0.8700318932533264, 0.0363622983488706], [-0.8728915452957153, 0.051737521594701505], [-0.8711509108543396, 0.040335867395115264], [-0.8417671918869019, 0.016279205014326607], [-0.8359235525131226, 0.010279678901658134], [-0.8548219799995422, 0.021896313358115156], [-0.8480252027511597, 0.021207311846490235], [-0.8722284436225891, 0.04377310740619205], [-0.8682498335838318, 0.035663286076179745], [-0.8658460974693298, 0.0295083420609425], [-0.8568941950798035, 0.02469360123870948], [-0.8636495471000671, 0.028323054558413448]]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[[0.002836020560472824], [0.09395666529574745], [0.005660977500076756], [0.004329113995310084], [0.00421014211672947], [0.003668268240272974], [0.0025752790440976845], [0.054385473424672974], [0.058182731619724815], [0.024883423091979016], [0.061338221654791414], [0.004347405255735161], [0.009440373292847835], [0.005123701552146722], [0.03253262230350703], [0.003970822547819292]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Equalized Odds_Race_(0.1, 10)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Equalized Odds</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[[-0.7522483468055725, 0.0], [-0.8494343161582947, 0.001698615223809652], [-0.8671723008155823, 0.021765169040070798], [-0.8713995814323425, 0.035994645615542775], [-0.8741348385810852, 0.050330490712441084], [-0.8708608150482178, 0.032723838692287927], [-0.7522483468055725, 0.0], [-0.850801944732666, 0.01444244798396832], [-0.8734303116798401, 0.04998912041201213]]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[[0.09579316406203515], [0.028936015992545895], [0.003589614050798086], [0.0031183331037854603], [0.002759758366152665], [0.002694870587713256], [0.09548765190984926], [0.06725469668650612], [0.002166291379806841]]</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Equalized Odds_Race_(0.001, 0.001)</t>
+          <t>Equalized Odds_Race_(10, 10)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -496,10 +496,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001</v>
+        <v>10</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -513,19 +513,19 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[[-0.8242363929748535, 0.014159401248010444], [-0.8745492696762085, 0.04942125245736562], [-0.8483567237854004, 0.022308763410192875], [-0.8272618055343628, 0.015153982078193153], [-0.8723942041397095, 0.041401527976946725], [-0.8729329705238342, 0.04163277990565041], [-0.8464503288269043, 0.019675899769046053], [-0.8696174621582031, 0.025799807076898284], [-0.873927652835846, 0.048502003441224226], [-0.8731402158737183, 0.043939038281920376], [-0.8715653419494629, 0.02747662629584531], [-0.872269868850708, 0.031295781863708405], [-0.8646027445793152, 0.024152517929055446]]</t>
+          <t>[[-0.8503875136375427, 0.01922290446061099], [-0.8669236302375793, 0.034648683723865176], [-0.8739690780639648, 0.04711974835558183], [-0.8457458019256592, 0.015183009937203732], [-0.8659289479255676, 0.029467294592491547], [-0.835094690322876, 0.012189256685589685], [-0.7522897720336914, 0.0], [-0.8726428747177124, 0.03765720201103132], [-0.8611214756965637, 0.028131845673973487]]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[[0.0720604168948716], [0.002836020560472824], [0.0559131138617306], [0.08765127631437424], [0.0057057463996129515], [0.002577534814659025], [0.030659470640097105], [0.0028352034648014795], [0.003095331604070015], [0.005586780177463361], [0.001933568534453362], [0.0035356390842225284], [0.004155429204476469]]</t>
+          <t>[[0.04197753198888916], [0.010803827068125648], [0.0021237469449526787], [0.06177702723217478], [0.008433702987639622], [0.04510250410005919], [0.08763897297723619], [0.002869657976576269], [0.021459469932835498]]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Equalized Odds_Race_(0.001, 0.1)</t>
+          <t>Disparate Impact_Sex_(0.001, 0.001)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -541,33 +541,33 @@
         <v>0.001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Equalized Odds</t>
+          <t>Disparate Impact</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[[-0.8729329705238342, 0.03932652152938046], [-0.8735546469688416, 0.04492886483761692], [-0.8708608150482178, 0.02273396964944826], [-0.8726842999458313, 0.039115291122808635], [-0.8721041083335876, 0.034613394954087606], [-0.8681669235229492, 0.02031283862696687]]</t>
+          <t>[[-0.810021162033081, 0.02184925229606259], [-0.8389075398445129, 0.1045485028844908], [-0.8499730825424194, 0.11924149703930072], [-0.8419743776321411, 0.10821307212454835], [-0.8459115624427795, 0.10904960127443153], [-0.8747150897979736, 0.17338345593019078], [-0.8713995814323425, 0.16250137951454072], [-0.8707779049873352, 0.15510915735159175], [-0.8499315977096558, 0.1149630261877726], [-0.8723527789115906, 0.1665534124038609], [-0.8686642646789551, 0.1305041924540625], [-0.8718554377555847, 0.16451300102486288], [-0.8709851503372192, 0.1610440335396325], [-0.8702391386032104, 0.14722101558802037], [-0.8719383478164673, 0.16631589598728508]]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[[0.004001572844964948], [0.002443965282760008], [0.003986077195804353], [0.0018077342267215526], [0.0039166856703735506], [0.001969444193204859]]</t>
+          <t>[[0.08765127631437424], [0.06868144267539021], [0.028116354807234078], [0.09970930234432981], [0.06107416252545339], [0.003135367572720289], [0.004476840162227411], [0.0048712006974014135], [0.07883712481667846], [0.0035157663500238316], [0.003802530133121809], [0.00317259212958858], [0.00370726378099527], [0.0021546746770493325], [0.002471137452285945]]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Equalized Odds_Race_(0.001, 10)</t>
+          <t>Disparate Impact_Sex_(0.001, 0.1)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -583,33 +583,33 @@
         <v>0.001</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Equalized Odds</t>
+          <t>Disparate Impact</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[[-0.8619089126586914, 0.02549898203282666], [-0.8486883044242859, 0.02446810800867916], [-0.8347631692886353, 0.021626022809334945], [-0.872725784778595, 0.043879475927618386], [-0.8736375570297241, 0.04493837338658924], [-0.8678354024887085, 0.03005042979478375], [-0.8674623966217041, 0.02795540182508562], [-0.8722284436225891, 0.035812945280075156], [-0.8711509108543396, 0.03206587388804802], [-0.8726428747177124, 0.03783364585991919], [-0.8707779049873352, 0.030407067342858418], [-0.8629035353660583, 0.025808813413777], [-0.874880850315094, 0.05666187857656621], [-0.8680840730667114, 0.030337494227490495], [-0.8720211982727051, 0.03211967754367664]]</t>
+          <t>[[-0.8173152804374695, 0.07276596969781646], [-0.8493099808692932, 0.12167847474662798], [-0.8689957857131958, 0.14043140489196318], [-0.8738033175468445, 0.19648916019106316], [-0.8733474016189575, 0.17303388482867063], [-0.8718140125274658, 0.1521107772050852], [-0.8650586605072021, 0.1287324865160392], [-0.872725784778595, 0.16136721392819975], [-0.8661776185035706, 0.13622406195128134], [-0.870322048664093, 0.15021777277624374], [-0.8428861498832703, 0.10264893605911293], [-0.8655974268913269, 0.1306321944682243], [-0.8730158805847168, 0.17034598365808024]]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[[0.009924848699921704], [0.07503941706300225], [0.09086869075900025], [0.004273323343272307], [0.0023895398211110945], [0.007803082023880141], [0.0026085558453432882], [0.006096653228117211], [0.0028502520542225845], [0.004606693194367068], [0.0038426154255498304], [0.010921646514229267], [0.0026291574446831944], [0.0032930808050942997], [0.005800639842243884]]</t>
+          <t>[[0.08712484089966802], [0.07533200046344589], [0.0016239718648745724], [0.0025249172629695734], [0.004486764226266943], [0.0028641164248420104], [0.006345685943521792], [0.004176727696697152], [0.00410370186269373], [0.00375990016006918], [0.036065797023465455], [0.0027777828729447754], [0.003666121282726806]]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Equalized Odds_Race_(0.1, 0.001)</t>
+          <t>Disparate Impact_Sex_(0.001, 10)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -622,36 +622,36 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001</v>
+        <v>10</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Equalized Odds</t>
+          <t>Disparate Impact</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[[-0.7633967399597168, 0.00013064210595074792], [-0.8711094260215759, 0.030486149007198676], [-0.872477114200592, 0.036467662446109717], [-0.8698247075080872, 0.02036614007050188], [-0.8718968629837036, 0.03514071765237675], [-0.8382444381713867, 0.014053534938677725], [-0.8739690780639648, 0.04636592800307515], [-0.8725599646568298, 0.042753248567297716]]</t>
+          <t>[[-0.8384516835212708, 0.10269056846724714], [-0.8537858724594116, 0.12791874934552444], [-0.8396949768066406, 0.1189233972157939], [-0.866509199142456, 0.13321417996998516], [-0.8716067671775818, 0.14672375528272924], [-0.8729329705238342, 0.15073535534177668], [-0.8674209713935852, 0.14431140420326438], [-0.8731816411018372, 0.16348983167241193], [-0.8635666370391846, 0.13017698995148907], [-0.8740105032920837, 0.18373066174642166], [-0.8750051856040955, 0.19134769891329537], [-0.8483982086181641, 0.12653006156233587]]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[[0.08947120568403436], [0.0026459700330397585], [0.0038954644340870328], [0.004816235113004338], [0.00408031450697115], [0.03952480124322402], [0.002516430643276443], [0.0045271594241939675]]</t>
+          <t>[[0.08947120568403436], [0.029432053422530583], [0.08898042992881451], [0.003147796638414838], [0.0025544280895220144], [0.004145511248882711], [0.005677407193879394], [0.0030818883621768654], [0.0021124927273296736], [0.0033021597765636327], [0.0033033033008103133], [0.06255215547964782]]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Equalized Odds_Race_(0.1, 0.1)</t>
+          <t>Disparate Impact_Sex_(0.1, 0.001)</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -667,33 +667,33 @@
         <v>0.1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Equalized Odds</t>
+          <t>Disparate Impact</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[[-0.8728086352348328, 0.04566792015457151], [-0.7522483468055725, 0.0], [-0.8678354024887085, 0.03050767716561137], [-0.8716482520103455, 0.04253250961175356], [-0.8700318932533264, 0.0363622983488706], [-0.8728915452957153, 0.051737521594701505], [-0.8711509108543396, 0.040335867395115264], [-0.8417671918869019, 0.016279205014326607], [-0.8359235525131226, 0.010279678901658134], [-0.8548219799995422, 0.021896313358115156], [-0.8480252027511597, 0.021207311846490235], [-0.8722284436225891, 0.04377310740619205], [-0.8682498335838318, 0.035663286076179745], [-0.8658460974693298, 0.0295083420609425], [-0.8568941950798035, 0.02469360123870948], [-0.8636495471000671, 0.028323054558413448]]</t>
+          <t>[[-0.8478179574012756, 0.11731899710774722], [-0.7570558190345764, 0.004086185576670948], [-0.8353847861289978, 0.08845277882917249], [-0.8719797730445862, 0.1526535509057095], [-0.8014007806777954, 0.057478126050512675], [-0.8645198941230774, 0.12950099254483527], [-0.8735546469688416, 0.19181334681376597], [-0.7522483468055725, 0.0], [-0.8692030310630798, 0.13480954796236883], [-0.8705706596374512, 0.1474308005869746], [-0.8452484607696533, 0.11311729923935475], [-0.8730987310409546, 0.16224551661302436], [-0.8429690599441528, 0.09939109427750553], [-0.8647685647010803, 0.1331079820475411], [-0.8739690780639648, 0.20230930028482214], [-0.8712337613105774, 0.15069252335578098]]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[[0.002836020560472824], [0.09395666529574745], [0.005660977500076756], [0.004329113995310084], [0.00421014211672947], [0.003668268240272974], [0.0025752790440976845], [0.054385473424672974], [0.058182731619724815], [0.024883423091979016], [0.061338221654791414], [0.004347405255735161], [0.009440373292847835], [0.005123701552146722], [0.03253262230350703], [0.003970822547819292]]</t>
+          <t>[[0.07484174887254597], [0.09673695270330956], [0.09243205917810483], [0.0037727271458590384], [0.08819865400297673], [0.004099666576386042], [0.0030098264811213105], [0.08829289405801084], [0.0034551157073854644], [0.0033293778826384186], [0.06408355269963872], [0.002412446630358178], [0.08219557122261262], [0.00766160787730499], [0.002802202019999584], [0.0032846663701750797]]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Equalized Odds_Race_(0.1, 10)</t>
+          <t>Disparate Impact_Sex_(0.1, 0.1)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -709,26 +709,110 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Equalized Odds</t>
+          <t>Disparate Impact</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[[-0.7522483468055725, 0.0], [-0.8494343161582947, 0.001698615223809652], [-0.8671723008155823, 0.021765169040070798], [-0.8713995814323425, 0.035994645615542775], [-0.8741348385810852, 0.050330490712441084], [-0.8708608150482178, 0.032723838692287927], [-0.7522483468055725, 0.0], [-0.850801944732666, 0.01444244798396832], [-0.8734303116798401, 0.04998912041201213]]</t>
+          <t>[[-0.8597538471221924, 0.1458031851191378], [-0.8724356293678284, 0.18505372556424615], [-0.8520452380180359, 0.13671207845069863], [-0.8673380613327026, 0.14995965184581161], [-0.8521695733070374, 0.13744177460750517], [-0.8518380522727966, 0.10171354758076193], [-0.8655145168304443, 0.14941539631371134], [-0.834846019744873, 0.08179491000766884], [-0.8690786957740784, 0.15242676012648348], [-0.8538687825202942, 0.14272111677594115], [-0.8183099031448364, 0.05810240048231497], [-0.8721455335617065, 0.1848399184512857], [-0.8534543514251709, 0.14120703782452465], [-0.8358407020568848, 0.0913804544452545], [-0.8706535696983337, 0.1667349720413682], [-0.8737204074859619, 0.19109571699897795], [-0.871068000793457, 0.16831855594534784], [-0.8651415109634399, 0.14720803192175477], [-0.8423888087272644, 0.10115877810152267], [-0.8404824137687683, 0.09835120139839731], [-0.8292925357818604, 0.07983056597777027], [-0.8730573058128357, 0.18921971835040827], [-0.8374984264373779, 0.09724624906115392], [-0.7522068619728088, 5.221691867680656e-06]]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[[0.09579316406203515], [0.028936015992545895], [0.003589614050798086], [0.0031183331037854603], [0.002759758366152665], [0.002694870587713256], [0.09548765190984926], [0.06725469668650612], [0.002166291379806841]]</t>
+          <t>[[0.018707395116629322], [0.002836020560472824], [0.0559131138617306], [0.0019269989066847614], [0.03118439263901804], [0.03839006038931984], [0.0007522678332471111], [0.08623177562984075], [0.001507369875340657], [0.06250211396116168], [0.07816211960977973], [0.0049018781712608026], [0.04447077636074928], [0.08067089115334795], [0.003783646114981599], [0.0036688808434778425], [0.002230449155541084], [0.01212470810610548], [0.0773226560478192], [0.08554327476795973], [0.053950702425013694], [0.003547761250473295], [0.08730025474483272], [0.07767397371326261]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Disparate Impact_Sex_(0.1, 10)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Disparate Impact</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[[-0.8728915452957153, 0.16431323602922232], [-0.8297898769378662, 0.08656139735861422], [-0.8571428656578064, 0.12979848785448583], [-0.85772305727005, 0.1373525824653329], [-0.8278834819793701, 0.08073857585551776], [-0.8483982086181641, 0.11294364270305253], [-0.8506361842155457, 0.12119716177055435], [-0.8733059763908386, 0.18838333032733232], [-0.8437150120735168, 0.08968058205211363], [-0.7522897720336914, 0.00012786088735455825], [-0.8454556465148926, 0.11072851633669807], [-0.8270960450172424, 0.07062324138357334], [-0.8493099808692932, 0.11618327912652666], [-0.869907557964325, 0.147893908204915], [-0.8443366885185242, 0.10355144199137829], [-0.7916615009307861, 0.006368488303269089], [-0.873471736907959, 0.19015129640496395], [-0.7522483468055725, 0.0], [-0.821003794670105, 0.06559933873623203], [-0.8674209713935852, 0.13947654091421383], [-0.8719797730445862, 0.15927966619558537], [-0.8289610147476196, 0.08586705346701995]]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[[0.002836020560472824], [0.09284857075771918], [0.0347651432019945], [0.026148365918500525], [0.09034823507648394], [0.03972999377934057], [0.04295439210098956], [0.0043131974029235985], [0.08105261552617463], [0.0976728313754554], [0.0880770404549615], [0.08229169061440766], [0.03773564054249139], [0.0022465434357852856], [0.08473636717673887], [0.05084092410199904], [0.0020852891727336717], [0.09945571512645841], [0.054698313031643235], [0.002264134705497198], [0.0024235489731044054], [0.0858448664485221]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Disparate Impact_Sex_(10, 0.001)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Disparate Impact</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[[-0.8288366794586182, 0.09032786015349517], [-0.7522483468055725, 0.0], [-0.8299971222877502, 0.10384413898958286], [-0.8729329705238342, 0.17653940415697478], [-0.8703634738922119, 0.1410585018599102], [-0.8384931087493896, 0.1072089548910741], [-0.8725599646568298, 0.15760985381238546], [-0.8733474016189575, 0.17877435883974574], [-0.7522483468055725, 0.0], [-0.8615773320198059, 0.11386061413305942], [-0.8669650554656982, 0.1327025952937597], [-0.8514650464057922, 0.11201326422635838], [-0.8740105032920837, 0.20033677090010396], [-0.8713995814323425, 0.15192159671998723]]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[[0.08765127631437424], [0.08993839457871917], [0.09668792312598594], [0.004114040458461378], [0.0028951146214190823], [0.0803144720912461], [0.003391870958608056], [0.0039351527821083485], [0.09286055961503215], [0.004194768390324957], [0.001979837793989134], [0.06786684405774013], [0.003929270296250824], [0.004693492675479447]]</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Equalized Odds_Race_(10, 10)</t>
+          <t>Disparate Impact_Sex_(10, 10)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -503,29 +503,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Equalized Odds</t>
+          <t>Disparate Impact</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Race</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[[-0.8503875136375427, 0.01922290446061099], [-0.8669236302375793, 0.034648683723865176], [-0.8739690780639648, 0.04711974835558183], [-0.8457458019256592, 0.015183009937203732], [-0.8659289479255676, 0.029467294592491547], [-0.835094690322876, 0.012189256685589685], [-0.7522897720336914, 0.0], [-0.8726428747177124, 0.03765720201103132], [-0.8611214756965637, 0.028131845673973487]]</t>
+          <t>[[-0.8719383478164673, 0.17777235850837997], [-0.8536615967750549, 0.12727944490875165], [-0.8725599646568298, 0.19455050124008125], [-0.8542417883872986, 0.14248818698060045], [-0.8688715100288391, 0.16362587791458608], [-0.8356334567070007, 0.08595017715648114], [-0.7856935858726501, 0.024226039420104307], [-0.8394877314567566, 0.09313113248899989], [-0.8463674187660217, 0.0989089345405885], [-0.8480252027511597, 0.11462940241546997], [-0.8539931178092957, 0.1371311545047818], [-0.8512163758277893, 0.11984072146281886], [-0.8338099122047424, 0.07585826973453766], [-0.8135853409767151, 0.045286745680743506], [-0.8564383387565613, 0.14704750017852541], [-0.8670064806938171, 0.16168347910321254], [-0.8658460974693298, 0.1491778798971355], [-0.8718140125274658, 0.16714198175343284]]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[[0.04197753198888916], [0.010803827068125648], [0.0021237469449526787], [0.06177702723217478], [0.008433702987639622], [0.04510250410005919], [0.08763897297723619], [0.002869657976576269], [0.021459469932835498]]</t>
+          <t>[[0.004001572844964948], [0.042168651738004714], [0.0019269989066847614], [0.03972639030579199], [0.005903193973527537], [0.0767151018649009], [0.03973923374197222], [0.08643897232174119], [0.04547453234925966], [0.07242390265716592], [0.023834604623778587], [0.039923549945090155], [0.07554319159671206], [0.08518942179324795], [0.040411189298766734], [0.010028769435294127], [0.003595542318823879], [0.004966976731849801]]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Disparate Impact_Sex_(0.001, 0.001)</t>
+          <t>Disparate Impact_Race_(0.001, 0.001)</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -550,24 +550,24 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Race</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[[-0.810021162033081, 0.02184925229606259], [-0.8389075398445129, 0.1045485028844908], [-0.8499730825424194, 0.11924149703930072], [-0.8419743776321411, 0.10821307212454835], [-0.8459115624427795, 0.10904960127443153], [-0.8747150897979736, 0.17338345593019078], [-0.8713995814323425, 0.16250137951454072], [-0.8707779049873352, 0.15510915735159175], [-0.8499315977096558, 0.1149630261877726], [-0.8723527789115906, 0.1665534124038609], [-0.8686642646789551, 0.1305041924540625], [-0.8718554377555847, 0.16451300102486288], [-0.8709851503372192, 0.1610440335396325], [-0.8702391386032104, 0.14722101558802037], [-0.8719383478164673, 0.16631589598728508]]</t>
+          <t>[[-0.8426789045333862, 0.08582927363933741], [-0.8713995814323425, 0.10321454758024565], [-0.8346802592277527, 0.08394993795419026], [-0.8705706596374512, 0.09344567813738615], [-0.8750051856040955, 0.12914757422198953], [-0.8676281571388245, 0.0889297260665085], [-0.8717725276947021, 0.10821297426541933], [-0.8736375570297241, 0.12191561447408364], [-0.8730987310409546, 0.11040381274257959]]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[[0.08765127631437424], [0.06868144267539021], [0.028116354807234078], [0.09970930234432981], [0.06107416252545339], [0.003135367572720289], [0.004476840162227411], [0.0048712006974014135], [0.07883712481667846], [0.0035157663500238316], [0.003802530133121809], [0.00317259212958858], [0.00370726378099527], [0.0021546746770493325], [0.002471137452285945]]</t>
+          <t>[[0.09086869075900025], [0.006070323610806048], [0.0898671369874835], [0.0047346696246428075], [0.0038133161846784307], [0.0031854229682104634], [0.0026382836350091546], [0.002836223171227468], [0.0028007673362484666]]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Disparate Impact_Sex_(0.001, 0.1)</t>
+          <t>Disparate Impact_Race_(0.001, 0.1)</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -592,24 +592,24 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Race</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[[-0.8173152804374695, 0.07276596969781646], [-0.8493099808692932, 0.12167847474662798], [-0.8689957857131958, 0.14043140489196318], [-0.8738033175468445, 0.19648916019106316], [-0.8733474016189575, 0.17303388482867063], [-0.8718140125274658, 0.1521107772050852], [-0.8650586605072021, 0.1287324865160392], [-0.872725784778595, 0.16136721392819975], [-0.8661776185035706, 0.13622406195128134], [-0.870322048664093, 0.15021777277624374], [-0.8428861498832703, 0.10264893605911293], [-0.8655974268913269, 0.1306321944682243], [-0.8730158805847168, 0.17034598365808024]]</t>
+          <t>[[-0.8491027355194092, 0.0803194793272752], [-0.8745078444480896, 0.13550687469893707], [-0.8647270798683167, 0.08964308680821793], [-0.8733474016189575, 0.12834289092262163], [-0.8694931268692017, 0.09526206833081391], [-0.8721041083335876, 0.10553701694736421], [-0.8721870183944702, 0.10847649401866269], [-0.8637324571609497, 0.08141825221910268], [-0.8703634738922119, 0.09745122998135047], [-0.8726014494895935, 0.11075988042678332], [-0.866509199142456, 0.09465176793312867], [-0.8730987310409546, 0.12282761467736662]]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[[0.08712484089966802], [0.07533200046344589], [0.0016239718648745724], [0.0025249172629695734], [0.004486764226266943], [0.0028641164248420104], [0.006345685943521792], [0.004176727696697152], [0.00410370186269373], [0.00375990016006918], [0.036065797023465455], [0.0027777828729447754], [0.003666121282726806]]</t>
+          <t>[[0.07449575377403603], [0.0026025163248126412], [0.006718489198878167], [0.00253799471332819], [0.0023489321945580083], [0.004302699350644417], [0.0028194945474053212], [0.003747564968900523], [0.0022865246895994265], [0.002916702044317958], [0.0022437140043414243], [0.0026541675553367157]]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Disparate Impact_Sex_(0.001, 10)</t>
+          <t>Disparate Impact_Race_(0.001, 10)</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -634,24 +634,24 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Race</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[[-0.8384516835212708, 0.10269056846724714], [-0.8537858724594116, 0.12791874934552444], [-0.8396949768066406, 0.1189233972157939], [-0.866509199142456, 0.13321417996998516], [-0.8716067671775818, 0.14672375528272924], [-0.8729329705238342, 0.15073535534177668], [-0.8674209713935852, 0.14431140420326438], [-0.8731816411018372, 0.16348983167241193], [-0.8635666370391846, 0.13017698995148907], [-0.8740105032920837, 0.18373066174642166], [-0.8750051856040955, 0.19134769891329537], [-0.8483982086181641, 0.12653006156233587]]</t>
+          <t>[[-0.8327738642692566, 0.07323256508231704], [-0.8727672100067139, 0.10732503007485289], [-0.8645198941230774, 0.09300112560211779], [-0.8586762547492981, 0.08726670101581512], [-0.871068000793457, 0.10016033687188897], [-0.8697003722190857, 0.09752159220621304], [-0.8737618923187256, 0.12126094266420277], [-0.8712752461433411, 0.10558925654602479], [-0.8751295208930969, 0.12465380785720968], [-0.8731816411018372, 0.11821698639558315]]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[[0.08947120568403436], [0.029432053422530583], [0.08898042992881451], [0.003147796638414838], [0.0025544280895220144], [0.004145511248882711], [0.005677407193879394], [0.0030818883621768654], [0.0021124927273296736], [0.0033021597765636327], [0.0033033033008103133], [0.06255215547964782]]</t>
+          <t>[[0.08782643609259838], [0.0026250967606220696], [0.006109659261214599], [0.0015247176606834026], [0.004372223439650701], [0.004596052636912842], [0.003742973284967858], [0.004069098630757678], [0.0027706750719909507], [0.0036402533564104376]]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Disparate Impact_Sex_(0.1, 0.001)</t>
+          <t>Disparate Impact_Race_(0.1, 0.001)</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -676,24 +676,24 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Race</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[[-0.8478179574012756, 0.11731899710774722], [-0.7570558190345764, 0.004086185576670948], [-0.8353847861289978, 0.08845277882917249], [-0.8719797730445862, 0.1526535509057095], [-0.8014007806777954, 0.057478126050512675], [-0.8645198941230774, 0.12950099254483527], [-0.8735546469688416, 0.19181334681376597], [-0.7522483468055725, 0.0], [-0.8692030310630798, 0.13480954796236883], [-0.8705706596374512, 0.1474308005869746], [-0.8452484607696533, 0.11311729923935475], [-0.8730987310409546, 0.16224551661302436], [-0.8429690599441528, 0.09939109427750553], [-0.8647685647010803, 0.1331079820475411], [-0.8739690780639648, 0.20230930028482214], [-0.8712337613105774, 0.15069252335578098]]</t>
+          <t>[[-0.8538273572921753, 0.08181772391552689], [-0.8612458109855652, 0.08255230296335897], [-0.8726428747177124, 0.1068227560077312], [-0.8704048991203308, 0.08868619924608587], [-0.87131667137146, 0.09978279290823586], [-0.8713995814323425, 0.10317636752789126], [-0.8735546469688416, 0.1199267691117443], [-0.8752123713493347, 0.1363385162109471], [-0.8744249939918518, 0.1272617892036744]]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[[0.07484174887254597], [0.09673695270330956], [0.09243205917810483], [0.0037727271458590384], [0.08819865400297673], [0.004099666576386042], [0.0030098264811213105], [0.08829289405801084], [0.0034551157073854644], [0.0033293778826384186], [0.06408355269963872], [0.002412446630358178], [0.08219557122261262], [0.00766160787730499], [0.002802202019999584], [0.0032846663701750797]]</t>
+          <t>[[0.04049962501061414], [0.005359186657494501], [0.002978173270265373], [0.004315666972489704], [0.003063353777804901], [0.0018769588614531124], [0.0035689839668892036], [0.0031176163344332204], [0.0024228894438231815]]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Disparate Impact_Sex_(0.1, 0.1)</t>
+          <t>Disparate Impact_Race_(0.1, 0.1)</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -718,101 +718,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Race</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[[-0.8597538471221924, 0.1458031851191378], [-0.8724356293678284, 0.18505372556424615], [-0.8520452380180359, 0.13671207845069863], [-0.8673380613327026, 0.14995965184581161], [-0.8521695733070374, 0.13744177460750517], [-0.8518380522727966, 0.10171354758076193], [-0.8655145168304443, 0.14941539631371134], [-0.834846019744873, 0.08179491000766884], [-0.8690786957740784, 0.15242676012648348], [-0.8538687825202942, 0.14272111677594115], [-0.8183099031448364, 0.05810240048231497], [-0.8721455335617065, 0.1848399184512857], [-0.8534543514251709, 0.14120703782452465], [-0.8358407020568848, 0.0913804544452545], [-0.8706535696983337, 0.1667349720413682], [-0.8737204074859619, 0.19109571699897795], [-0.871068000793457, 0.16831855594534784], [-0.8651415109634399, 0.14720803192175477], [-0.8423888087272644, 0.10115877810152267], [-0.8404824137687683, 0.09835120139839731], [-0.8292925357818604, 0.07983056597777027], [-0.8730573058128357, 0.18921971835040827], [-0.8374984264373779, 0.09724624906115392], [-0.7522068619728088, 5.221691867680656e-06]]</t>
+          <t>[[-0.8717725276947021, 0.12332369738464707], [-0.8275104761123657, 0.07069591336069012], [-0.8726014494895935, 0.12556916171374], [-0.8525011539459229, 0.0925596687467701], [-0.8560653328895569, 0.09568804678655848], [-0.8132123351097107, 0.055392484166403376], [-0.8730158805847168, 0.12729945330937534], [-0.8659704327583313, 0.10393171342852418], [-0.8707779049873352, 0.11824465403487373], [-0.7522483468055725, 0.0], [-0.8227444291114807, 0.06016028269749036], [-0.8401508331298828, 0.07539644534683512], [-0.8689957857131958, 0.1083107461562458], [-0.8697832226753235, 0.11252906150142153], [-0.8514650464057922, 0.08135311395410616], [-0.8682498335838318, 0.10771547270484196], [-0.8260185122489929, 0.06699967153546176], [-0.8556094169616699, 0.09464009464009465], [-0.7782336473464966, 0.008440177823593839]]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[[0.018707395116629322], [0.002836020560472824], [0.0559131138617306], [0.0019269989066847614], [0.03118439263901804], [0.03839006038931984], [0.0007522678332471111], [0.08623177562984075], [0.001507369875340657], [0.06250211396116168], [0.07816211960977973], [0.0049018781712608026], [0.04447077636074928], [0.08067089115334795], [0.003783646114981599], [0.0036688808434778425], [0.002230449155541084], [0.01212470810610548], [0.0773226560478192], [0.08554327476795973], [0.053950702425013694], [0.003547761250473295], [0.08730025474483272], [0.07767397371326261]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Disparate Impact_Sex_(0.1, 10)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Disparate Impact</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[[-0.8728915452957153, 0.16431323602922232], [-0.8297898769378662, 0.08656139735861422], [-0.8571428656578064, 0.12979848785448583], [-0.85772305727005, 0.1373525824653329], [-0.8278834819793701, 0.08073857585551776], [-0.8483982086181641, 0.11294364270305253], [-0.8506361842155457, 0.12119716177055435], [-0.8733059763908386, 0.18838333032733232], [-0.8437150120735168, 0.08968058205211363], [-0.7522897720336914, 0.00012786088735455825], [-0.8454556465148926, 0.11072851633669807], [-0.8270960450172424, 0.07062324138357334], [-0.8493099808692932, 0.11618327912652666], [-0.869907557964325, 0.147893908204915], [-0.8443366885185242, 0.10355144199137829], [-0.7916615009307861, 0.006368488303269089], [-0.873471736907959, 0.19015129640496395], [-0.7522483468055725, 0.0], [-0.821003794670105, 0.06559933873623203], [-0.8674209713935852, 0.13947654091421383], [-0.8719797730445862, 0.15927966619558537], [-0.8289610147476196, 0.08586705346701995]]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[[0.002836020560472824], [0.09284857075771918], [0.0347651432019945], [0.026148365918500525], [0.09034823507648394], [0.03972999377934057], [0.04295439210098956], [0.0043131974029235985], [0.08105261552617463], [0.0976728313754554], [0.0880770404549615], [0.08229169061440766], [0.03773564054249139], [0.0022465434357852856], [0.08473636717673887], [0.05084092410199904], [0.0020852891727336717], [0.09945571512645841], [0.054698313031643235], [0.002264134705497198], [0.0024235489731044054], [0.0858448664485221]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Disparate Impact_Sex_(10, 0.001)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Disparate Impact</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[[-0.8288366794586182, 0.09032786015349517], [-0.7522483468055725, 0.0], [-0.8299971222877502, 0.10384413898958286], [-0.8729329705238342, 0.17653940415697478], [-0.8703634738922119, 0.1410585018599102], [-0.8384931087493896, 0.1072089548910741], [-0.8725599646568298, 0.15760985381238546], [-0.8733474016189575, 0.17877435883974574], [-0.7522483468055725, 0.0], [-0.8615773320198059, 0.11386061413305942], [-0.8669650554656982, 0.1327025952937597], [-0.8514650464057922, 0.11201326422635838], [-0.8740105032920837, 0.20033677090010396], [-0.8713995814323425, 0.15192159671998723]]</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>[[0.08765127631437424], [0.08993839457871917], [0.09668792312598594], [0.004114040458461378], [0.0028951146214190823], [0.0803144720912461], [0.003391870958608056], [0.0039351527821083485], [0.09286055961503215], [0.004194768390324957], [0.001979837793989134], [0.06786684405774013], [0.003929270296250824], [0.004693492675479447]]</t>
+          <t>[[0.004001572844964948], [0.09086869075900025], [0.0037293514224302107], [0.06612048796071514], [0.0344648697359514], [0.09778989332890103], [0.002739714344349096], [0.0052629927777773375], [0.0034721558693426085], [0.08324125529297945], [0.08612195236826577], [0.09049681714602174], [0.006605446161493327], [0.0020240264488088446], [0.02968626082431062], [0.004817997420541967], [0.09095008033263717], [0.024358775079884806], [0.09648920651882678]]</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,300 +436,90 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>fairness metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>learning rate</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>number generations</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>population size</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>priority</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>population size</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>number generations</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>protected attribute</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>solutions</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>threshold fairness difference</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>threshold negative accuracy</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>fairness metric</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>protected attribute</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>solutions</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>learning rate</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Disparate Impact_Sex_(10, 10)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
+          <t>Disparate Impact_Race_(0.1, 10)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Disparate Impact</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[[0.06926302930536449], [0.06921852368365229], [0.09888722278175882], [0.07624751169073916], [0.009102819664474236], [0.08417793809765174], [0.09748987384145347], [0.005787438853392009], [0.0997193465724494], [0.01016829382115882], [0.0971068911990689], [0.002404668257382378], [0.048617073225954724], [0.0020458178486272294], [0.07641952609515693], [0.009356621977984264], [0.004852868094559917]]</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[[-0.8274275660514832, 0.05611655080117164], [-0.8525011539459229, 0.08352608777839111], [-0.7522483468055725, 0.0], [-0.8399436473846436, 0.06672035091595686], [-0.8698247075080872, 0.10442753816247793], [-0.8118446469306946, 0.03862608823629377], [-0.8401923179626465, 0.0735972103796342], [-0.8699490427970886, 0.11108208911185524], [-0.7522483468055725, 0.0], [-0.866509199142456, 0.09586475851536091], [-0.7522483468055725, 0.0], [-0.8711509108543396, 0.12290442623539719], [-0.774793803691864, 0.011327673269558459], [-0.8725185394287109, 0.12368311872209817], [-0.8442952632904053, 0.07595379671921132], [-0.8643540740013123, 0.08667568412430213], [-0.8741763234138489, 0.12549879948887743]]</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J2" t="n">
         <v>10</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Disparate Impact</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[[-0.8719383478164673, 0.17777235850837997], [-0.8536615967750549, 0.12727944490875165], [-0.8725599646568298, 0.19455050124008125], [-0.8542417883872986, 0.14248818698060045], [-0.8688715100288391, 0.16362587791458608], [-0.8356334567070007, 0.08595017715648114], [-0.7856935858726501, 0.024226039420104307], [-0.8394877314567566, 0.09313113248899989], [-0.8463674187660217, 0.0989089345405885], [-0.8480252027511597, 0.11462940241546997], [-0.8539931178092957, 0.1371311545047818], [-0.8512163758277893, 0.11984072146281886], [-0.8338099122047424, 0.07585826973453766], [-0.8135853409767151, 0.045286745680743506], [-0.8564383387565613, 0.14704750017852541], [-0.8670064806938171, 0.16168347910321254], [-0.8658460974693298, 0.1491778798971355], [-0.8718140125274658, 0.16714198175343284]]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[[0.004001572844964948], [0.042168651738004714], [0.0019269989066847614], [0.03972639030579199], [0.005903193973527537], [0.0767151018649009], [0.03973923374197222], [0.08643897232174119], [0.04547453234925966], [0.07242390265716592], [0.023834604623778587], [0.039923549945090155], [0.07554319159671206], [0.08518942179324795], [0.040411189298766734], [0.010028769435294127], [0.003595542318823879], [0.004966976731849801]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Disparate Impact_Race_(0.001, 0.001)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Disparate Impact</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Race</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[[-0.8426789045333862, 0.08582927363933741], [-0.8713995814323425, 0.10321454758024565], [-0.8346802592277527, 0.08394993795419026], [-0.8705706596374512, 0.09344567813738615], [-0.8750051856040955, 0.12914757422198953], [-0.8676281571388245, 0.0889297260665085], [-0.8717725276947021, 0.10821297426541933], [-0.8736375570297241, 0.12191561447408364], [-0.8730987310409546, 0.11040381274257959]]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[[0.09086869075900025], [0.006070323610806048], [0.0898671369874835], [0.0047346696246428075], [0.0038133161846784307], [0.0031854229682104634], [0.0026382836350091546], [0.002836223171227468], [0.0028007673362484666]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Disparate Impact_Race_(0.001, 0.1)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Disparate Impact</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Race</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[[-0.8491027355194092, 0.0803194793272752], [-0.8745078444480896, 0.13550687469893707], [-0.8647270798683167, 0.08964308680821793], [-0.8733474016189575, 0.12834289092262163], [-0.8694931268692017, 0.09526206833081391], [-0.8721041083335876, 0.10553701694736421], [-0.8721870183944702, 0.10847649401866269], [-0.8637324571609497, 0.08141825221910268], [-0.8703634738922119, 0.09745122998135047], [-0.8726014494895935, 0.11075988042678332], [-0.866509199142456, 0.09465176793312867], [-0.8730987310409546, 0.12282761467736662]]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[[0.07449575377403603], [0.0026025163248126412], [0.006718489198878167], [0.00253799471332819], [0.0023489321945580083], [0.004302699350644417], [0.0028194945474053212], [0.003747564968900523], [0.0022865246895994265], [0.002916702044317958], [0.0022437140043414243], [0.0026541675553367157]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Disparate Impact_Race_(0.001, 10)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Disparate Impact</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Race</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[[-0.8327738642692566, 0.07323256508231704], [-0.8727672100067139, 0.10732503007485289], [-0.8645198941230774, 0.09300112560211779], [-0.8586762547492981, 0.08726670101581512], [-0.871068000793457, 0.10016033687188897], [-0.8697003722190857, 0.09752159220621304], [-0.8737618923187256, 0.12126094266420277], [-0.8712752461433411, 0.10558925654602479], [-0.8751295208930969, 0.12465380785720968], [-0.8731816411018372, 0.11821698639558315]]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[[0.08782643609259838], [0.0026250967606220696], [0.006109659261214599], [0.0015247176606834026], [0.004372223439650701], [0.004596052636912842], [0.003742973284967858], [0.004069098630757678], [0.0027706750719909507], [0.0036402533564104376]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Disparate Impact_Race_(0.1, 0.001)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Disparate Impact</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Race</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[[-0.8538273572921753, 0.08181772391552689], [-0.8612458109855652, 0.08255230296335897], [-0.8726428747177124, 0.1068227560077312], [-0.8704048991203308, 0.08868619924608587], [-0.87131667137146, 0.09978279290823586], [-0.8713995814323425, 0.10317636752789126], [-0.8735546469688416, 0.1199267691117443], [-0.8752123713493347, 0.1363385162109471], [-0.8744249939918518, 0.1272617892036744]]</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[[0.04049962501061414], [0.005359186657494501], [0.002978173270265373], [0.004315666972489704], [0.003063353777804901], [0.0018769588614531124], [0.0035689839668892036], [0.0031176163344332204], [0.0024228894438231815]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Disparate Impact_Race_(0.1, 0.1)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Disparate Impact</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Race</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[[-0.8717725276947021, 0.12332369738464707], [-0.8275104761123657, 0.07069591336069012], [-0.8726014494895935, 0.12556916171374], [-0.8525011539459229, 0.0925596687467701], [-0.8560653328895569, 0.09568804678655848], [-0.8132123351097107, 0.055392484166403376], [-0.8730158805847168, 0.12729945330937534], [-0.8659704327583313, 0.10393171342852418], [-0.8707779049873352, 0.11824465403487373], [-0.7522483468055725, 0.0], [-0.8227444291114807, 0.06016028269749036], [-0.8401508331298828, 0.07539644534683512], [-0.8689957857131958, 0.1083107461562458], [-0.8697832226753235, 0.11252906150142153], [-0.8514650464057922, 0.08135311395410616], [-0.8682498335838318, 0.10771547270484196], [-0.8260185122489929, 0.06699967153546176], [-0.8556094169616699, 0.09464009464009465], [-0.7782336473464966, 0.008440177823593839]]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[[0.004001572844964948], [0.09086869075900025], [0.0037293514224302107], [0.06612048796071514], [0.0344648697359514], [0.09778989332890103], [0.002739714344349096], [0.0052629927777773375], [0.0034721558693426085], [0.08324125529297945], [0.08612195236826577], [0.09049681714602174], [0.006605446161493327], [0.0020240264488088446], [0.02968626082431062], [0.004817997420541967], [0.09095008033263717], [0.024358775079884806], [0.09648920651882678]]</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,90 +436,174 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>priority</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>population size</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>number generations</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>threshold fairness difference</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>threshold negative accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>fairness metric</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>protected attribute</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>solutions</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>learning rate</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>number generations</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>population size</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>priority</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>protected attribute</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>solutions</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>threshold fairness difference</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>threshold negative accuracy</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Disparate Impact_Race_(0.1, 10)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Disparate Impact</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[[0.06926302930536449], [0.06921852368365229], [0.09888722278175882], [0.07624751169073916], [0.009102819664474236], [0.08417793809765174], [0.09748987384145347], [0.005787438853392009], [0.0997193465724494], [0.01016829382115882], [0.0971068911990689], [0.002404668257382378], [0.048617073225954724], [0.0020458178486272294], [0.07641952609515693], [0.009356621977984264], [0.004852868094559917]]</t>
-        </is>
+          <t>Disparate Impact_Race_(10, 0.001)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Disparate Impact</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[[-0.8358407020568848, 0.031736330106280505], [-0.8733474016189575, 0.11274846781579595], [-0.8689957857131958, 0.09905537262022024], [-0.869658887386322, 0.10272633305943016], [-0.8387002944946289, 0.07255093505979401], [-0.8680425882339478, 0.08099846512319936], [-0.8723942041397095, 0.10750129035033358], [-0.8740519881248474, 0.12870134486009752], [-0.8682912588119507, 0.09487523732739891]]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[[0.05598517513508527], [0.0026411470462352356], [0.003050720855790057], [0.004098136157383937], [0.08762271247658386], [0.004111937526794698], [0.004108922863637425], [0.003964599406010687], [0.0027751787567281702]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Disparate Impact_Race_(10, 0.1)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>50</v>
       </c>
-      <c r="F2" t="n">
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Disparate Impact</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Race</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[[-0.8492684960365295, 0.08704323162154488], [-0.7522483468055725, 0.0], [-0.7522483468055725, 0.0], [-0.8497658371925354, 0.0918401166452194], [-0.872269868850708, 0.1114651150087011], [-0.7864810228347778, 0.01871680326676783], [-0.7522483468055725, 0.0], [-0.8609142303466797, 0.09908807073938186], [-0.8414356112480164, 0.07369427284381219], [-0.7522483468055725, 0.0], [-0.8176468014717102, 0.05366715855730739], [-0.869907557964325, 0.10882256523645609], [-0.8534543514251709, 0.0931286934121803], [-0.8356749415397644, 0.06697342274946812], [-0.8728501200675964, 0.1473797745945159], [-0.8677939176559448, 0.09978827484142862], [-0.8480666279792786, 0.08606203007336954], [-0.8373740911483765, 0.07329409172073949], [-0.8294997811317444, 0.06517921826213818], [-0.8729329705238342, 0.14840315478160976], [-0.8193874359130859, 0.05531019067518004], [-0.8728086352348328, 0.1232533351597845], [-0.8282979130744934, 0.06219227409872343], [-0.8709851503372192, 0.11140907030347144], [-0.843880832195282, 0.08025511498225886], [-0.7522483468055725, 0.0], [-0.8562725186347961, 0.09428376898256417]]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[[0.0559131138617306], [0.09682933141436782], [0.09579316406203515], [0.09086869075900025], [0.0029178281412218844], [0.08972773965382774], [0.08021221109984895], [0.015892213087910702], [0.09024082380124918], [0.09201307802053099], [0.09248459321950579], [0.003447652230894001], [0.0686353061976405], [0.07533702617052299], [0.002238972884040881], [0.006149233861657666], [0.09521802220881674], [0.09237673645176012], [0.07446685566734379], [0.00420764828510944], [0.09685155655768296], [0.0025366716320966883], [0.08425689457969016], [0.003458399110913096], [0.07686105793860915], [0.09594814443116047], [0.028558958983729753]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Disparate Impact_Race_(10, 10)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Disparate Impact</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Race</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[[-0.8274275660514832, 0.05611655080117164], [-0.8525011539459229, 0.08352608777839111], [-0.7522483468055725, 0.0], [-0.8399436473846436, 0.06672035091595686], [-0.8698247075080872, 0.10442753816247793], [-0.8118446469306946, 0.03862608823629377], [-0.8401923179626465, 0.0735972103796342], [-0.8699490427970886, 0.11108208911185524], [-0.7522483468055725, 0.0], [-0.866509199142456, 0.09586475851536091], [-0.7522483468055725, 0.0], [-0.8711509108543396, 0.12290442623539719], [-0.774793803691864, 0.011327673269558459], [-0.8725185394287109, 0.12368311872209817], [-0.8442952632904053, 0.07595379671921132], [-0.8643540740013123, 0.08667568412430213], [-0.8741763234138489, 0.12549879948887743]]</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[[-0.8557337522506714, 0.09314423630511513], [-0.8520452380180359, 0.08720491640406595], [-0.8750466108322144, 0.1241426982036479], [-0.8685399293899536, 0.10393455113511811], [-0.8459529876708984, 0.07698459363944835], [-0.8500974178314209, 0.08589318653103202], [-0.8474035263061523, 0.08491869228935141], [-0.8693273663520813, 0.10463288493054618], [-0.8712337613105774, 0.10907466966999213], [-0.8607070446014404, 0.09411873054679575], [-0.7522483468055725, 0.0], [-0.872269868850708, 0.1137642377897516], [-0.8725185394287109, 0.11862219799852684], [-0.8453313708305359, 0.0564372761396149], [-0.8497244119644165, 0.08562702255118981]]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[[0.020524779748178592], [0.06707970426682239], [0.0029124968357005804], [0.003113625462404887], [0.06704157265780117], [0.023919763672682306], [0.07603086557371663], [0.005476192446241146], [0.003424572246084591], [0.008441450634756771], [0.09840613686151646], [0.003086189732474945], [0.003159775616756344], [0.07258959008556169], [0.06445239845264936]]</t>
+        </is>
       </c>
     </row>
   </sheetData>
